--- a/src/main/resources/excelTemplate/order.xlsx
+++ b/src/main/resources/excelTemplate/order.xlsx
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>

--- a/src/main/resources/excelTemplate/order.xlsx
+++ b/src/main/resources/excelTemplate/order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,7 +60,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="1">
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:image(src="image.QRCode" lastCell="G2")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -64,7 +90,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="items" var="item" lastCell="G6")</t>
+          <t>jx:each(items="items" var="item" lastCell="G9")</t>
         </r>
       </text>
     </comment>
@@ -503,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -521,6 +547,112 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -650,7 +782,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,34 +794,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,7 +906,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +914,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,13 +1471,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.4583333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.7666666666667" style="1" customWidth="1"/>
@@ -1331,104 +1493,131 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="43" customHeight="1" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B4:G5"/>
+    <mergeCell ref="B6:G7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/excelTemplate/order.xlsx
+++ b/src/main/resources/excelTemplate/order.xlsx
@@ -24,10 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
-<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData"/>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,28 +56,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:image(src="image.QRCode" lastCell="G2")</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A9" authorId="1">
       <text>
         <r>
@@ -906,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +896,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,6 +908,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -944,6 +924,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,22 +1466,22 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.4583333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5416666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.2333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.2333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.23333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="40" customHeight="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1500,45 +1492,45 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="43" customHeight="1" spans="1:7">
+    <row r="2" ht="20" customHeight="1" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
@@ -1547,22 +1539,22 @@
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" ht="19" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1585,7 +1577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="52" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1609,15 +1601,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B4:G5"/>
     <mergeCell ref="B6:G7"/>
+    <mergeCell ref="B2:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/excelTemplate/order.xlsx
+++ b/src/main/resources/excelTemplate/order.xlsx
@@ -30,7 +30,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
-    <author>laiyangzhou</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -51,12 +50,59 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="G10")
+Administrator:
+jx:area(lastCell="L13")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="1">
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Administrator:
+jx:image(lastCell="K4" src="image.QRCode" imageType="PNG")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+jx:each(items="items" var="item" lastCell="L13")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +110,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="items" var="item" lastCell="G9")</t>
+          <t xml:space="preserve">jx:image(lastCell="C12" src="item.image" imageType="PNG")
+</t>
         </r>
       </text>
     </comment>
@@ -73,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>销售出库</t>
   </si>
@@ -114,9 +161,6 @@
     <t>拣货库区</t>
   </si>
   <si>
-    <t>${item.itemNumber}</t>
-  </si>
-  <si>
     <t>${item.itemDes}</t>
   </si>
   <si>
@@ -298,12 +342,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -521,9 +565,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -536,7 +578,18 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,11 +600,28 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -560,13 +630,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -583,15 +660,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -602,31 +670,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -880,42 +928,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,19 +1001,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,152 +1538,266 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23333333333333" style="1"/>
+    <col min="1" max="1" width="2.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="1.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="1.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.23333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="48" customHeight="1" spans="1:12">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="9" customHeight="1" spans="1:12">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="16"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+    <row r="3" ht="36" customHeight="1" spans="1:12">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="35" customHeight="1" spans="1:12">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
-    <row r="8" ht="19" customHeight="1" spans="1:7">
-      <c r="A8" s="2" t="s">
+    <row r="10" ht="19" customHeight="1" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="G10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="H10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="I10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="J10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="K10" s="25" t="s">
         <v>12</v>
       </c>
+      <c r="L10" s="12"/>
     </row>
-    <row r="9" ht="52" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
+    <row r="11" ht="7" customHeight="1" spans="1:12">
+      <c r="A11" s="3"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" ht="52" customHeight="1" spans="1:12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="G12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="H12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="I12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="J12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" ht="6" customHeight="1" spans="1:12">
+      <c r="A13" s="3"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B4:G5"/>
-    <mergeCell ref="B6:G7"/>
-    <mergeCell ref="B2:G3"/>
+  <mergeCells count="14">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="E6:L7"/>
+    <mergeCell ref="E8:L9"/>
+    <mergeCell ref="F3:K4"/>
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B8:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
